--- a/data/trans_orig/P11_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P11_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A20E826-3DBF-4184-96C8-C3ED2F5FC5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A785B3C-2223-4059-BF7E-E28C55FF4392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0C41A6E9-781C-4A59-8204-9CEAA95B1CFD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A97AA871-7E4B-4677-8F48-D8C70EF131B6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>33,41%</t>
   </si>
   <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
   </si>
   <si>
     <t>46,8%</t>
   </si>
   <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
   </si>
   <si>
     <t>40,91%</t>
   </si>
   <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>66,59%</t>
   </si>
   <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
   </si>
   <si>
     <t>53,2%</t>
   </si>
   <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
   </si>
   <si>
     <t>59,09%</t>
   </si>
   <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,388 +140,388 @@
     <t>11,49%</t>
   </si>
   <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
   </si>
   <si>
     <t>18,32%</t>
   </si>
   <si>
-    <t>16,34%</t>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
   </si>
   <si>
     <t>20,35%</t>
   </si>
   <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
   </si>
   <si>
     <t>79,65%</t>
   </si>
   <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
+    <t>82,6%</t>
   </si>
   <si>
     <t>68,72%</t>
   </si>
   <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
   </si>
   <si>
     <t>74,82%</t>
   </si>
   <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
   </si>
   <si>
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2015 (Tasa respuesta: 99,31%)</t>
@@ -530,211 +530,211 @@
     <t>34,01%</t>
   </si>
   <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
   </si>
   <si>
     <t>53,19%</t>
   </si>
   <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
   </si>
   <si>
     <t>44,89%</t>
   </si>
   <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
   </si>
   <si>
     <t>65,99%</t>
   </si>
   <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
   </si>
   <si>
     <t>46,81%</t>
   </si>
   <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
   </si>
   <si>
     <t>55,11%</t>
   </si>
   <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
   </si>
   <si>
     <t>15,4%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
   </si>
   <si>
     <t>20,46%</t>
   </si>
   <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
   </si>
   <si>
     <t>84,6%</t>
   </si>
   <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
   </si>
   <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
   </si>
   <si>
     <t>82,12%</t>
   </si>
   <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
   </si>
   <si>
     <t>9,74%</t>
   </si>
   <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
   </si>
   <si>
     <t>15,88%</t>
   </si>
   <si>
-    <t>19,35%</t>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
   </si>
   <si>
     <t>12,83%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
   </si>
   <si>
     <t>90,26%</t>
   </si>
   <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>84,12%</t>
   </si>
   <si>
-    <t>80,65%</t>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
   </si>
   <si>
     <t>87,17%</t>
   </si>
   <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
   </si>
   <si>
     <t>18,65%</t>
   </si>
   <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
+    <t>20,07%</t>
   </si>
   <si>
     <t>28,91%</t>
   </si>
   <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
   </si>
   <si>
     <t>23,9%</t>
   </si>
   <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
   </si>
   <si>
     <t>81,35%</t>
   </si>
   <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
+    <t>79,93%</t>
   </si>
   <si>
     <t>71,09%</t>
   </si>
   <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
   </si>
   <si>
     <t>76,1%</t>
   </si>
   <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
   </si>
   <si>
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2023 (Tasa respuesta: 99,85%)</t>
@@ -743,217 +743,217 @@
     <t>44,49%</t>
   </si>
   <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
   </si>
   <si>
     <t>64,2%</t>
   </si>
   <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
   </si>
   <si>
     <t>56,44%</t>
   </si>
   <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
   </si>
   <si>
     <t>55,51%</t>
   </si>
   <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
   </si>
   <si>
     <t>35,8%</t>
   </si>
   <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
   </si>
   <si>
     <t>43,56%</t>
   </si>
   <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
   </si>
   <si>
     <t>24,5%</t>
   </si>
   <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
   </si>
   <si>
     <t>34,07%</t>
   </si>
   <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
   </si>
   <si>
     <t>29,38%</t>
   </si>
   <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
   </si>
   <si>
     <t>75,5%</t>
   </si>
   <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
   </si>
   <si>
     <t>65,93%</t>
   </si>
   <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
   </si>
   <si>
     <t>70,62%</t>
   </si>
   <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
   </si>
   <si>
     <t>18,77%</t>
   </si>
   <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
   </si>
   <si>
     <t>25,56%</t>
   </si>
   <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
   </si>
   <si>
     <t>22,27%</t>
   </si>
   <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
   </si>
   <si>
     <t>81,23%</t>
   </si>
   <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
   </si>
   <si>
     <t>74,44%</t>
   </si>
   <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
   </si>
   <si>
     <t>77,73%</t>
   </si>
   <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
   </si>
   <si>
     <t>26,57%</t>
   </si>
   <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
   </si>
   <si>
     <t>39,09%</t>
   </si>
   <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
   </si>
   <si>
     <t>33,2%</t>
   </si>
   <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
   </si>
   <si>
     <t>73,43%</t>
   </si>
   <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
   </si>
   <si>
     <t>60,91%</t>
   </si>
   <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
   </si>
   <si>
     <t>66,8%</t>
   </si>
   <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDFBF6E-3C96-486F-AF88-D2E5E9A07F94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E1971C-2C5E-44F0-B612-28A6F0802F28}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1981,7 +1981,7 @@
         <v>1559</v>
       </c>
       <c r="N13" s="7">
-        <v>1582389</v>
+        <v>1582390</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -2083,7 +2083,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2116,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894E6863-EA61-4812-9397-3049440D222B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666A2A74-2D3D-4807-B477-AD13B9AA1DA6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2867,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF20C5B-18B9-42C0-B013-5513E323EE34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3237AC15-A929-43A4-9CE8-CA15BB4A4EA3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3319,10 +3319,10 @@
         <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>126</v>
@@ -3331,13 +3331,13 @@
         <v>139669</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3352,13 @@
         <v>488500</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>444</v>
@@ -3367,13 +3367,13 @@
         <v>460356</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>895</v>
@@ -3382,13 +3382,13 @@
         <v>948855</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3456,13 @@
         <v>625326</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>903</v>
@@ -3471,13 +3471,13 @@
         <v>1014773</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>1509</v>
@@ -3486,13 +3486,13 @@
         <v>1640099</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3507,13 @@
         <v>2727571</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2401</v>
@@ -3618,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F835C5-2E87-494A-9800-D4BDF148E380}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D283B8EE-2673-426E-8C37-BABDB9FAA20B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3975,7 +3975,7 @@
         <v>3274</v>
       </c>
       <c r="N8" s="7">
-        <v>3113760</v>
+        <v>3113761</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>266</v>
@@ -4026,7 +4026,7 @@
         <v>4910</v>
       </c>
       <c r="N9" s="7">
-        <v>4409201</v>
+        <v>4409202</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P11_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P11_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A785B3C-2223-4059-BF7E-E28C55FF4392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CF7E60B-D4D5-4BAC-A57F-F53CC9F6C583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A97AA871-7E4B-4677-8F48-D8C70EF131B6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E9EEA4E-B5E4-4199-A45D-29D580D2F0AB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>33,41%</t>
   </si>
   <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
   </si>
   <si>
     <t>46,8%</t>
   </si>
   <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
   </si>
   <si>
     <t>40,91%</t>
   </si>
   <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>66,59%</t>
   </si>
   <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
   </si>
   <si>
     <t>53,2%</t>
   </si>
   <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
   </si>
   <si>
     <t>59,09%</t>
   </si>
   <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,7 +140,7 @@
     <t>11,49%</t>
   </si>
   <si>
-    <t>10,12%</t>
+    <t>10,04%</t>
   </si>
   <si>
     <t>13,19%</t>
@@ -149,19 +149,19 @@
     <t>18,32%</t>
   </si>
   <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
   </si>
   <si>
     <t>14,79%</t>
   </si>
   <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
   </si>
   <si>
     <t>88,51%</t>
@@ -170,25 +170,25 @@
     <t>86,81%</t>
   </si>
   <si>
-    <t>89,88%</t>
+    <t>89,96%</t>
   </si>
   <si>
     <t>81,68%</t>
   </si>
   <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
   </si>
   <si>
     <t>85,21%</t>
   </si>
   <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,511 +197,508 @@
     <t>10,22%</t>
   </si>
   <si>
-    <t>7,82%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
   </si>
   <si>
     <t>13,36%</t>
   </si>
   <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
   </si>
   <si>
     <t>86,64%</t>
   </si>
   <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
+    <t>91,32%</t>
   </si>
   <si>
     <t>18,82%</t>
   </si>
   <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
   </si>
   <si>
     <t>31,28%</t>
   </si>
   <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
   </si>
   <si>
     <t>25,18%</t>
   </si>
   <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
   </si>
   <si>
     <t>81,18%</t>
   </si>
   <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
   </si>
   <si>
     <t>68,72%</t>
   </si>
   <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
   </si>
   <si>
     <t>74,82%</t>
   </si>
   <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2015 (Tasa respuesta: 99,31%)</t>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2016 (Tasa respuesta: 99,31%)</t>
   </si>
   <si>
     <t>34,01%</t>
   </si>
   <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
   </si>
   <si>
     <t>53,19%</t>
   </si>
   <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
   </si>
   <si>
     <t>44,89%</t>
   </si>
   <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
   </si>
   <si>
     <t>65,99%</t>
   </si>
   <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
   </si>
   <si>
     <t>46,81%</t>
   </si>
   <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
   </si>
   <si>
     <t>55,11%</t>
   </si>
   <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
   </si>
   <si>
     <t>15,4%</t>
   </si>
   <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
   </si>
   <si>
     <t>20,46%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
   </si>
   <si>
     <t>84,6%</t>
   </si>
   <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
   </si>
   <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
   </si>
   <si>
     <t>82,12%</t>
   </si>
   <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
   </si>
   <si>
     <t>9,74%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
   </si>
   <si>
     <t>15,88%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
+    <t>19,43%</t>
   </si>
   <si>
     <t>12,83%</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
   </si>
   <si>
     <t>90,26%</t>
   </si>
   <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
   </si>
   <si>
     <t>84,12%</t>
   </si>
   <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
+    <t>80,57%</t>
   </si>
   <si>
     <t>87,17%</t>
   </si>
   <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
   </si>
   <si>
     <t>18,65%</t>
   </si>
   <si>
-    <t>20,07%</t>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
   </si>
   <si>
     <t>28,91%</t>
   </si>
   <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
   </si>
   <si>
     <t>23,9%</t>
@@ -710,28 +707,31 @@
     <t>22,83%</t>
   </si>
   <si>
-    <t>24,95%</t>
+    <t>24,94%</t>
   </si>
   <si>
     <t>81,35%</t>
   </si>
   <si>
-    <t>79,93%</t>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
   </si>
   <si>
     <t>71,09%</t>
   </si>
   <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
   </si>
   <si>
     <t>76,1%</t>
   </si>
   <si>
-    <t>75,05%</t>
+    <t>75,06%</t>
   </si>
   <si>
     <t>77,17%</t>
@@ -851,9 +851,6 @@
     <t>18,77%</t>
   </si>
   <si>
-    <t>15,72%</t>
-  </si>
-  <si>
     <t>22,22%</t>
   </si>
   <si>
@@ -879,9 +876,6 @@
   </si>
   <si>
     <t>77,78%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
   </si>
   <si>
     <t>74,44%</t>
@@ -1365,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E1971C-2C5E-44F0-B612-28A6F0802F28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42269B8-D215-4728-8712-7EB92F2A3483}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1692,7 +1686,7 @@
         <v>1455</v>
       </c>
       <c r="D8" s="7">
-        <v>1498795</v>
+        <v>1498796</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1743,7 +1737,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2002,7 +1996,7 @@
         <v>2614</v>
       </c>
       <c r="D14" s="7">
-        <v>2680860</v>
+        <v>2680859</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2053,7 +2047,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2116,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666A2A74-2D3D-4807-B477-AD13B9AA1DA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B280FF7-9F1F-4B20-BDCD-E02F64BF3E5C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2867,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3237AC15-A929-43A4-9CE8-CA15BB4A4EA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7F9EE0-9BCF-47AC-B96F-47A1F98E1732}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3319,10 +3313,10 @@
         <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>126</v>
@@ -3331,13 +3325,13 @@
         <v>139669</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3346,13 @@
         <v>488500</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>444</v>
@@ -3367,13 +3361,13 @@
         <v>460356</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="M11" s="7">
         <v>895</v>
@@ -3382,13 +3376,13 @@
         <v>948855</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3450,13 @@
         <v>625326</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>903</v>
@@ -3471,13 +3465,13 @@
         <v>1014773</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>1509</v>
@@ -3486,13 +3480,13 @@
         <v>1640099</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3501,13 @@
         <v>2727571</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2401</v>
@@ -3618,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D283B8EE-2673-426E-8C37-BABDB9FAA20B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8321C2F7-308B-44E6-9396-2EBF473963C6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4055,10 +4049,10 @@
         <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>289</v>
@@ -4067,13 +4061,13 @@
         <v>182080</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>430</v>
@@ -4082,13 +4076,13 @@
         <v>308150</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4097,13 @@
         <v>545466</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7">
         <v>713</v>
@@ -4118,13 +4112,13 @@
         <v>530256</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>1252</v>
@@ -4133,13 +4127,13 @@
         <v>1075722</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4201,13 @@
         <v>896267</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>2292</v>
@@ -4222,13 +4216,13 @@
         <v>1483432</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>3341</v>
@@ -4237,13 +4231,13 @@
         <v>2379699</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4252,13 @@
         <v>2477082</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>3053</v>
@@ -4273,13 +4267,13 @@
         <v>2311453</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>5365</v>
@@ -4288,13 +4282,13 @@
         <v>4788535</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P11_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P11_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CF7E60B-D4D5-4BAC-A57F-F53CC9F6C583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3818BE80-6649-46AA-8AF8-E77CB9DB8E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E9EEA4E-B5E4-4199-A45D-29D580D2F0AB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{599B27D3-7CD4-47F4-81A4-54BCA8D9CA1A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
   <si>
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>33,41%</t>
   </si>
   <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
   </si>
   <si>
     <t>46,8%</t>
   </si>
   <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
   </si>
   <si>
     <t>40,91%</t>
   </si>
   <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>66,59%</t>
   </si>
   <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
   </si>
   <si>
     <t>53,2%</t>
   </si>
   <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
   </si>
   <si>
     <t>59,09%</t>
   </si>
   <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>11,49%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
   </si>
   <si>
     <t>18,32%</t>
   </si>
   <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
   </si>
   <si>
     <t>14,79%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
   </si>
   <si>
     <t>88,51%</t>
   </si>
   <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>81,68%</t>
   </si>
   <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
   </si>
   <si>
     <t>85,21%</t>
   </si>
   <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,61 +197,61 @@
     <t>10,22%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
   </si>
   <si>
     <t>16,9%</t>
   </si>
   <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
   </si>
   <si>
     <t>13,31%</t>
   </si>
   <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
   </si>
   <si>
     <t>89,78%</t>
   </si>
   <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
   </si>
   <si>
     <t>83,1%</t>
   </si>
   <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
   </si>
   <si>
     <t>86,69%</t>
   </si>
   <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
   </si>
   <si>
     <t>18,18%</t>
   </si>
   <si>
-    <t>16,8%</t>
+    <t>16,88%</t>
   </si>
   <si>
     <t>19,53%</t>
@@ -260,19 +260,19 @@
     <t>29,2%</t>
   </si>
   <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
   </si>
   <si>
     <t>23,77%</t>
   </si>
   <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
   </si>
   <si>
     <t>81,82%</t>
@@ -281,25 +281,25 @@
     <t>80,47%</t>
   </si>
   <si>
-    <t>83,2%</t>
+    <t>83,12%</t>
   </si>
   <si>
     <t>70,8%</t>
   </si>
   <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
   </si>
   <si>
     <t>76,23%</t>
   </si>
   <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,163 +311,163 @@
     <t>34,64%</t>
   </si>
   <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
   </si>
   <si>
     <t>52,05%</t>
   </si>
   <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
   </si>
   <si>
     <t>44,73%</t>
   </si>
   <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
   </si>
   <si>
     <t>65,36%</t>
   </si>
   <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
   </si>
   <si>
     <t>47,95%</t>
   </si>
   <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
   </si>
   <si>
     <t>55,27%</t>
   </si>
   <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
   </si>
   <si>
     <t>12,95%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
   </si>
   <si>
     <t>20,74%</t>
   </si>
   <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
   </si>
   <si>
     <t>16,63%</t>
   </si>
   <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
   </si>
   <si>
     <t>87,05%</t>
   </si>
   <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
   </si>
   <si>
     <t>79,26%</t>
   </si>
   <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
   </si>
   <si>
     <t>83,37%</t>
   </si>
   <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
   </si>
   <si>
     <t>10,7%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
   </si>
   <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
   </si>
   <si>
     <t>89,3%</t>
   </si>
   <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
   </si>
   <si>
     <t>89,11%</t>
   </si>
   <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
   </si>
   <si>
     <t>18,82%</t>
@@ -476,31 +476,31 @@
     <t>17,51%</t>
   </si>
   <si>
-    <t>20,32%</t>
+    <t>20,49%</t>
   </si>
   <si>
     <t>31,28%</t>
   </si>
   <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
   </si>
   <si>
     <t>25,18%</t>
   </si>
   <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
   </si>
   <si>
     <t>81,18%</t>
   </si>
   <si>
-    <t>79,68%</t>
+    <t>79,51%</t>
   </si>
   <si>
     <t>82,49%</t>
@@ -509,19 +509,19 @@
     <t>68,72%</t>
   </si>
   <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
   </si>
   <si>
     <t>74,82%</t>
   </si>
   <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
   </si>
   <si>
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2016 (Tasa respuesta: 99,31%)</t>
@@ -530,211 +530,211 @@
     <t>34,01%</t>
   </si>
   <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
   </si>
   <si>
     <t>53,19%</t>
   </si>
   <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
   </si>
   <si>
     <t>44,89%</t>
   </si>
   <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
   </si>
   <si>
     <t>65,99%</t>
   </si>
   <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
   </si>
   <si>
     <t>46,81%</t>
   </si>
   <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
   </si>
   <si>
     <t>55,11%</t>
   </si>
   <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
   </si>
   <si>
     <t>15,4%</t>
   </si>
   <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
   </si>
   <si>
     <t>20,46%</t>
   </si>
   <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
   </si>
   <si>
     <t>84,6%</t>
   </si>
   <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
   </si>
   <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
   </si>
   <si>
     <t>82,12%</t>
   </si>
   <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
   </si>
   <si>
     <t>9,74%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
   </si>
   <si>
     <t>15,88%</t>
   </si>
   <si>
-    <t>19,43%</t>
+    <t>19,35%</t>
   </si>
   <si>
     <t>12,83%</t>
   </si>
   <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
   </si>
   <si>
     <t>90,26%</t>
   </si>
   <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
   </si>
   <si>
     <t>84,12%</t>
   </si>
   <si>
-    <t>80,57%</t>
+    <t>80,65%</t>
   </si>
   <si>
     <t>87,17%</t>
   </si>
   <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
   </si>
   <si>
     <t>18,65%</t>
   </si>
   <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
   </si>
   <si>
     <t>28,91%</t>
   </si>
   <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
   </si>
   <si>
     <t>23,9%</t>
   </si>
   <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
   </si>
   <si>
     <t>81,35%</t>
   </si>
   <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
   </si>
   <si>
     <t>71,09%</t>
   </si>
   <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
   </si>
   <si>
     <t>76,1%</t>
   </si>
   <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
   </si>
   <si>
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2023 (Tasa respuesta: 99,85%)</t>
@@ -743,211 +743,217 @@
     <t>44,49%</t>
   </si>
   <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
   </si>
   <si>
     <t>64,2%</t>
   </si>
   <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
   </si>
   <si>
     <t>56,44%</t>
   </si>
   <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
   </si>
   <si>
     <t>55,51%</t>
   </si>
   <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
   </si>
   <si>
     <t>35,8%</t>
   </si>
   <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
   </si>
   <si>
     <t>43,56%</t>
   </si>
   <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
   </si>
   <si>
     <t>24,5%</t>
   </si>
   <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
   </si>
   <si>
     <t>34,07%</t>
   </si>
   <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
   </si>
   <si>
     <t>29,38%</t>
   </si>
   <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
   </si>
   <si>
     <t>75,5%</t>
   </si>
   <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
   </si>
   <si>
     <t>65,93%</t>
   </si>
   <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
   </si>
   <si>
     <t>70,62%</t>
   </si>
   <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
   </si>
   <si>
     <t>18,77%</t>
   </si>
   <si>
-    <t>22,22%</t>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
   </si>
   <si>
     <t>25,56%</t>
   </si>
   <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
   </si>
   <si>
     <t>22,27%</t>
   </si>
   <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
   </si>
   <si>
     <t>81,23%</t>
   </si>
   <si>
-    <t>77,78%</t>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
   </si>
   <si>
     <t>74,44%</t>
   </si>
   <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
   </si>
   <si>
     <t>77,73%</t>
   </si>
   <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
   </si>
   <si>
     <t>26,57%</t>
   </si>
   <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
   </si>
   <si>
     <t>39,09%</t>
   </si>
   <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
   </si>
   <si>
     <t>33,2%</t>
   </si>
   <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
   </si>
   <si>
     <t>73,43%</t>
   </si>
   <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
   </si>
   <si>
     <t>60,91%</t>
   </si>
   <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
   </si>
   <si>
     <t>66,8%</t>
   </si>
   <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42269B8-D215-4728-8712-7EB92F2A3483}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57BEDC2-56A6-4A67-B22B-2414F625374B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1686,7 +1692,7 @@
         <v>1455</v>
       </c>
       <c r="D8" s="7">
-        <v>1498796</v>
+        <v>1498795</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1737,7 +1743,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1975,7 +1981,7 @@
         <v>1559</v>
       </c>
       <c r="N13" s="7">
-        <v>1582390</v>
+        <v>1582389</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1996,7 +2002,7 @@
         <v>2614</v>
       </c>
       <c r="D14" s="7">
-        <v>2680859</v>
+        <v>2680860</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2047,7 +2053,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2077,7 +2083,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2110,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B280FF7-9F1F-4B20-BDCD-E02F64BF3E5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E92B80F-8A45-49D3-B838-836F4B7B696F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2861,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7F9EE0-9BCF-47AC-B96F-47A1F98E1732}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C29894-ECE4-4619-B50E-F6B12D78F42D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3313,7 +3319,7 @@
         <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>202</v>
@@ -3367,7 +3373,7 @@
         <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>895</v>
@@ -3612,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8321C2F7-308B-44E6-9396-2EBF473963C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D040C40-B1D4-40E1-92A4-4CF43BB42371}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3969,7 +3975,7 @@
         <v>3274</v>
       </c>
       <c r="N8" s="7">
-        <v>3113761</v>
+        <v>3113760</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>266</v>
@@ -4020,7 +4026,7 @@
         <v>4910</v>
       </c>
       <c r="N9" s="7">
-        <v>4409202</v>
+        <v>4409201</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4049,10 +4055,10 @@
         <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>289</v>
@@ -4061,13 +4067,13 @@
         <v>182080</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>430</v>
@@ -4076,13 +4082,13 @@
         <v>308150</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4103,13 @@
         <v>545466</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>713</v>
@@ -4112,13 +4118,13 @@
         <v>530256</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>1252</v>
@@ -4127,13 +4133,13 @@
         <v>1075722</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4207,13 @@
         <v>896267</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>2292</v>
@@ -4216,13 +4222,13 @@
         <v>1483432</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>3341</v>
@@ -4231,13 +4237,13 @@
         <v>2379699</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4258,13 @@
         <v>2477082</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>3053</v>
@@ -4267,13 +4273,13 @@
         <v>2311453</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>5365</v>
@@ -4282,13 +4288,13 @@
         <v>4788535</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P11_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P11_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3818BE80-6649-46AA-8AF8-E77CB9DB8E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFABCC7F-57F6-47E9-B372-27EAD12F2566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{599B27D3-7CD4-47F4-81A4-54BCA8D9CA1A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{057ACBE2-4DC8-46AF-80B3-A5959BE44F7D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -740,220 +740,208 @@
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2023 (Tasa respuesta: 99,85%)</t>
   </si>
   <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
   </si>
   <si>
     <t>24,73%</t>
   </si>
   <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
   </si>
   <si>
     <t>75,27%</t>
   </si>
   <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57BEDC2-56A6-4A67-B22B-2414F625374B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF56135C-BF08-4557-8EF2-636CA60BC809}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1516,7 +1504,7 @@
         <v>956</v>
       </c>
       <c r="N4" s="7">
-        <v>960151</v>
+        <v>960150</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1618,7 +1606,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1692,7 +1680,7 @@
         <v>1455</v>
       </c>
       <c r="D8" s="7">
-        <v>1498795</v>
+        <v>1498796</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1743,7 +1731,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1981,7 +1969,7 @@
         <v>1559</v>
       </c>
       <c r="N13" s="7">
-        <v>1582389</v>
+        <v>1582390</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -2002,7 +1990,7 @@
         <v>2614</v>
       </c>
       <c r="D14" s="7">
-        <v>2680860</v>
+        <v>2680859</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2017,7 +2005,7 @@
         <v>2338</v>
       </c>
       <c r="I14" s="7">
-        <v>2392492</v>
+        <v>2392491</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2053,7 +2041,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2068,7 +2056,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2083,7 +2071,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2116,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E92B80F-8A45-49D3-B838-836F4B7B696F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94231A17-B31A-42AA-B626-DA12F10D02CA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2318,7 +2306,7 @@
         <v>1190</v>
       </c>
       <c r="N5" s="7">
-        <v>1275405</v>
+        <v>1275404</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>104</v>
@@ -2369,7 +2357,7 @@
         <v>2150</v>
       </c>
       <c r="N6" s="7">
-        <v>2307406</v>
+        <v>2307405</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2867,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C29894-ECE4-4619-B50E-F6B12D78F42D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED494F55-5CEF-432D-A05A-EFF2EFF21102}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3618,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D040C40-B1D4-40E1-92A4-4CF43BB42371}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485BD303-D88C-4799-AFD6-8E04C9C53F38}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3739,7 +3727,7 @@
         <v>330</v>
       </c>
       <c r="D4" s="7">
-        <v>240998</v>
+        <v>227190</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>233</v>
@@ -3754,7 +3742,7 @@
         <v>945</v>
       </c>
       <c r="I4" s="7">
-        <v>535111</v>
+        <v>483841</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>236</v>
@@ -3769,7 +3757,7 @@
         <v>1275</v>
       </c>
       <c r="N4" s="7">
-        <v>776108</v>
+        <v>711032</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>239</v>
@@ -3790,7 +3778,7 @@
         <v>361</v>
       </c>
       <c r="D5" s="7">
-        <v>300636</v>
+        <v>287748</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>242</v>
@@ -3805,7 +3793,7 @@
         <v>478</v>
       </c>
       <c r="I5" s="7">
-        <v>298416</v>
+        <v>269493</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>245</v>
@@ -3820,7 +3808,7 @@
         <v>839</v>
       </c>
       <c r="N5" s="7">
-        <v>599052</v>
+        <v>557241</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>248</v>
@@ -3841,7 +3829,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3856,7 +3844,7 @@
         <v>1423</v>
       </c>
       <c r="I6" s="7">
-        <v>833527</v>
+        <v>753334</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3871,7 +3859,7 @@
         <v>2114</v>
       </c>
       <c r="N6" s="7">
-        <v>1375160</v>
+        <v>1268273</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3894,7 +3882,7 @@
         <v>578</v>
       </c>
       <c r="D7" s="7">
-        <v>529199</v>
+        <v>510446</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>251</v>
@@ -3909,7 +3897,7 @@
         <v>1058</v>
       </c>
       <c r="I7" s="7">
-        <v>766242</v>
+        <v>813076</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>254</v>
@@ -3924,7 +3912,7 @@
         <v>1636</v>
       </c>
       <c r="N7" s="7">
-        <v>1295441</v>
+        <v>1323521</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>257</v>
@@ -3945,7 +3933,7 @@
         <v>1412</v>
       </c>
       <c r="D8" s="7">
-        <v>1630981</v>
+        <v>1778234</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>260</v>
@@ -3960,7 +3948,7 @@
         <v>1862</v>
       </c>
       <c r="I8" s="7">
-        <v>1482780</v>
+        <v>1424314</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>263</v>
@@ -3975,7 +3963,7 @@
         <v>3274</v>
       </c>
       <c r="N8" s="7">
-        <v>3113760</v>
+        <v>3202549</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>266</v>
@@ -3996,7 +3984,7 @@
         <v>1990</v>
       </c>
       <c r="D9" s="7">
-        <v>2160180</v>
+        <v>2288680</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4011,7 +3999,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2249022</v>
+        <v>2237390</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4026,7 +4014,7 @@
         <v>4910</v>
       </c>
       <c r="N9" s="7">
-        <v>4409201</v>
+        <v>4526070</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4049,7 +4037,7 @@
         <v>141</v>
       </c>
       <c r="D10" s="7">
-        <v>126070</v>
+        <v>121592</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>269</v>
@@ -4064,7 +4052,7 @@
         <v>289</v>
       </c>
       <c r="I10" s="7">
-        <v>182080</v>
+        <v>170402</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>272</v>
@@ -4079,16 +4067,16 @@
         <v>430</v>
       </c>
       <c r="N10" s="7">
-        <v>308150</v>
+        <v>291994</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,46 +4088,46 @@
         <v>539</v>
       </c>
       <c r="D11" s="7">
-        <v>545466</v>
+        <v>523616</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>713</v>
       </c>
       <c r="I11" s="7">
-        <v>530256</v>
+        <v>488770</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>1252</v>
       </c>
       <c r="N11" s="7">
-        <v>1075722</v>
+        <v>1012386</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>285</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,7 +4139,7 @@
         <v>680</v>
       </c>
       <c r="D12" s="7">
-        <v>671536</v>
+        <v>645208</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4166,7 +4154,7 @@
         <v>1002</v>
       </c>
       <c r="I12" s="7">
-        <v>712336</v>
+        <v>659172</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4181,7 +4169,7 @@
         <v>1682</v>
       </c>
       <c r="N12" s="7">
-        <v>1383872</v>
+        <v>1304380</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4204,46 +4192,46 @@
         <v>1049</v>
       </c>
       <c r="D13" s="7">
-        <v>896267</v>
+        <v>859229</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
         <v>2292</v>
       </c>
       <c r="I13" s="7">
-        <v>1483432</v>
+        <v>1467319</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>3341</v>
       </c>
       <c r="N13" s="7">
-        <v>2379699</v>
+        <v>2326548</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,46 +4243,46 @@
         <v>2312</v>
       </c>
       <c r="D14" s="7">
-        <v>2477082</v>
+        <v>2589597</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>3053</v>
       </c>
       <c r="I14" s="7">
-        <v>2311453</v>
+        <v>2182577</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>5365</v>
       </c>
       <c r="N14" s="7">
-        <v>4788535</v>
+        <v>4772175</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,7 +4294,7 @@
         <v>3361</v>
       </c>
       <c r="D15" s="7">
-        <v>3373349</v>
+        <v>3448826</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4321,7 +4309,7 @@
         <v>5345</v>
       </c>
       <c r="I15" s="7">
-        <v>3794885</v>
+        <v>3649896</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4336,7 +4324,7 @@
         <v>8706</v>
       </c>
       <c r="N15" s="7">
-        <v>7168234</v>
+        <v>7098723</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
